--- a/grafik.xlsx
+++ b/grafik.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\SEMESTER 8\LAPORAN TA\COBA ASSEMBLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFE06DDC-90CC-4715-AAF3-B10CB59DA420}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159DB90D-6EB4-434D-8978-2EE6EF3AC6F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" activeTab="1" xr2:uid="{711ACC8C-989E-4DAB-A8E8-C66B080D32C1}"/>
+    <workbookView xWindow="20280" yWindow="-90" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{711ACC8C-989E-4DAB-A8E8-C66B080D32C1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="PSNR" sheetId="1" r:id="rId1"/>
+    <sheet name="ekstraksi" sheetId="2" r:id="rId2"/>
+    <sheet name="selisih file" sheetId="3" r:id="rId3"/>
+    <sheet name="eucdist" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="7">
   <si>
     <t>LSB</t>
   </si>
@@ -45,12 +47,22 @@
   <si>
     <t>PESAN CITRA</t>
   </si>
+  <si>
+    <t xml:space="preserve">LSB </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,17 +88,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -127,7 +143,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$14</c:f>
+              <c:f>PSNR!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -206,7 +222,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$1:$D$1</c:f>
+              <c:f>PSNR!$A$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -226,7 +242,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$12:$D$12</c:f>
+              <c:f>PSNR!$A$12:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -256,7 +272,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$14</c:f>
+              <c:f>PSNR!$F$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -335,7 +351,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$12:$I$12</c:f>
+              <c:f>PSNR!$F$12:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -706,7 +722,3113 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18553937759820618"/>
+          <c:y val="4.3852936633857989E-2"/>
+          <c:w val="0.81446062240179373"/>
+          <c:h val="0.80648418854047876"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ekstraksi!$K$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LSB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DCT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DWT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ekstraksi!$K$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1215</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-7444-4F82-8716-3A86BD5E9C3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="347937600"/>
+        <c:axId val="347934976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="347937600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Metode</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Penyisipan</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="347934976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="347934976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rata-rata Persentase</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Keberhasilan</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Ekstraksi</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="347937600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ekstraksi!$A$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LSB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DCT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DWT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ekstraksi!$A$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42EB-4AA6-9BFB-47B5FC97E167}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="523256688"/>
+        <c:axId val="523258000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="523256688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="523258000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="523258000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.29000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="523256688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ekstraksi!$F$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LSB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DCT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DWT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ekstraksi!$F$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.24299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8617-4A6C-8987-E79DB05AB8DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="521862336"/>
+        <c:axId val="521858728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="521862336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521858728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="521858728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521862336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'selisih file'!$K$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LSB </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DCT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DWT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'selisih file'!$K$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>372687.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>388444.38888888888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>372515.11111111112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>373368.16666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F9B6-488F-BF72-31E48B0E52F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="521864960"/>
+        <c:axId val="521867256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="521864960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521867256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="521867256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521864960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1478031496062992"/>
+          <c:y val="0.10304763004624118"/>
+          <c:w val="0.81766102469901014"/>
+          <c:h val="0.69914858429380178"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Pesan Teks</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'selisih file'!$K$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LSB </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DCT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DWT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'selisih file'!$A$13:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>372299.77777777775</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>373243.55555555556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>372319.11111111112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>372373.33333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F9B6-488F-BF72-31E48B0E52F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Pesan Citra</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'selisih file'!$F$13:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>373075.22222222225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>403645.22222222225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>372711.11111111112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>374363</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F388-45CB-A57E-3456D4D336BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="521864960"/>
+        <c:axId val="521867256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="521864960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Metode Penyisipan</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521867256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="521867256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rata-rata</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Selisih </a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>Ukuran File</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521864960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1831712598425197"/>
+          <c:y val="2.54371976620478E-2"/>
+          <c:w val="0.77238429571303591"/>
+          <c:h val="0.76444520704109642"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Pesan Teks</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>eucdist!$F$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LSB </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DCT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DWT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>eucdist!$A$13:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>309.00888888888886</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4024.287777777778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>317.24333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>328.2255555555555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C28-4404-A7B1-BF3AB0C0F694}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Pesan Citra</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>eucdist!$F$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LSB </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DCT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DWT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>eucdist!$F$13:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>369.28777777777782</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16845.425555555557</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>783.10888888888871</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3019.4133333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3C28-4404-A7B1-BF3AB0C0F694}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="441733552"/>
+        <c:axId val="441732568"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="441733552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Metode Penyisipan</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441732568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441732568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rata-rata Nilai</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Eucledean Distance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441733552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33161964129483812"/>
+          <c:y val="0.91573878201222925"/>
+          <c:w val="0.33676071741032371"/>
+          <c:h val="7.1542619156746881E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0692038495188101E-2"/>
+          <c:y val="2.5428331875182269E-2"/>
+          <c:w val="0.86486351706036746"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Rata-rata</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>eucdist!$F$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>LSB </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DCT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DWT</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>eucdist!$A$18:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>339.14833333333331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10434.856666666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>550.17611111111103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1673.8194444444443</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D9AC-437A-9195-9F32135F77E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="441733552"/>
+        <c:axId val="441732568"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="441733552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441732568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441732568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441733552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1295,6 +4417,3459 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1328,6 +7903,275 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>564698</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{278AFFC2-60D3-4C8B-9E00-6B47D2B537B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC4DE6E-9EF5-43E6-9651-8C35C9B2B287}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>78922</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2C4408D-D2A8-4EEC-B0C0-15908820D6FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA1FB04D-251F-4F30-B3C1-0EB2880CDC80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F00B95B-C447-48B2-81EA-156590DBE172}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D48856F2-33CD-4BC3-A9A4-799122EE327E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB398357-AB59-46B6-B19D-A63739728684}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1633,10 +8477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4720D93B-D9B2-46D0-86B3-B922338EFFB9}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1936,18 +8780,36 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="F14" s="1" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>AVERAGE(A12,F12)</f>
+        <v>68.188333333333347</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18:D18" si="2">AVERAGE(B12,G12)</f>
+        <v>49.44166666666667</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>65.128888888888881</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>60.727777777777774</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1961,17 +8823,472 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619207B3-4BB9-4E28-A545-DE59D5D015C1}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <f>(A2+F2)/2</f>
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="L2" s="2">
+        <f t="shared" ref="L2:N2" si="0">(B2+G2)/2</f>
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="M2" s="2">
+        <f t="shared" si="0"/>
+        <v>0.13650000000000001</v>
+      </c>
+      <c r="N2" s="2">
+        <f t="shared" si="0"/>
+        <v>0.1215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DED7F3-CC99-48E4-AD0F-0D18D015DE64}">
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10797</v>
+      </c>
+      <c r="B2">
+        <v>11185</v>
+      </c>
+      <c r="C2">
+        <v>10761</v>
+      </c>
+      <c r="D2">
+        <v>10793</v>
+      </c>
+      <c r="F2">
+        <v>11241</v>
+      </c>
+      <c r="G2">
+        <v>22526</v>
+      </c>
+      <c r="H2">
+        <v>10215</v>
+      </c>
+      <c r="I2">
+        <v>12076</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGE(A13,F13)</f>
+        <v>372687.5</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:N2" si="0">AVERAGE(B13,G13)</f>
+        <v>388444.38888888888</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>372515.11111111112</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>373368.16666666663</v>
+      </c>
+      <c r="R2">
+        <v>372687.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>15984</v>
+      </c>
+      <c r="B3">
+        <v>19966</v>
+      </c>
+      <c r="C3">
+        <v>16051</v>
+      </c>
+      <c r="D3">
+        <v>16688</v>
+      </c>
+      <c r="F3">
+        <v>25901</v>
+      </c>
+      <c r="G3">
+        <v>154567</v>
+      </c>
+      <c r="H3">
+        <v>27564</v>
+      </c>
+      <c r="I3">
+        <v>44914</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>83367</v>
+      </c>
+      <c r="B4">
+        <v>82263</v>
+      </c>
+      <c r="C4">
+        <v>83257</v>
+      </c>
+      <c r="D4">
+        <v>83134</v>
+      </c>
+      <c r="F4">
+        <v>79655</v>
+      </c>
+      <c r="G4">
+        <v>37027</v>
+      </c>
+      <c r="H4">
+        <v>75206</v>
+      </c>
+      <c r="I4">
+        <v>69543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3641</v>
+      </c>
+      <c r="B5">
+        <v>3678</v>
+      </c>
+      <c r="C5">
+        <v>3654</v>
+      </c>
+      <c r="D5">
+        <v>3616</v>
+      </c>
+      <c r="F5">
+        <v>3649</v>
+      </c>
+      <c r="G5">
+        <v>17714</v>
+      </c>
+      <c r="H5">
+        <v>3615</v>
+      </c>
+      <c r="I5">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3046</v>
+      </c>
+      <c r="B6">
+        <v>8178</v>
+      </c>
+      <c r="C6">
+        <v>3240</v>
+      </c>
+      <c r="D6">
+        <v>3240</v>
+      </c>
+      <c r="F6">
+        <v>3299</v>
+      </c>
+      <c r="G6">
+        <v>163622</v>
+      </c>
+      <c r="H6">
+        <v>3802</v>
+      </c>
+      <c r="I6">
+        <v>4802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8259</v>
+      </c>
+      <c r="B7">
+        <v>8318</v>
+      </c>
+      <c r="C7">
+        <v>8305</v>
+      </c>
+      <c r="D7">
+        <v>8285</v>
+      </c>
+      <c r="F7">
+        <v>8328</v>
+      </c>
+      <c r="G7">
+        <v>11747</v>
+      </c>
+      <c r="H7">
+        <v>8394</v>
+      </c>
+      <c r="I7">
+        <v>8388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3225604</v>
+      </c>
+      <c r="B9">
+        <v>3225604</v>
+      </c>
+      <c r="C9">
+        <v>3225604</v>
+      </c>
+      <c r="D9">
+        <v>3225604</v>
+      </c>
+      <c r="F9">
+        <v>3225604</v>
+      </c>
+      <c r="G9">
+        <v>3225604</v>
+      </c>
+      <c r="H9">
+        <v>3225604</v>
+      </c>
+      <c r="I9">
+        <v>3225604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>AVERAGE(A2:A10)</f>
+        <v>372299.77777777775</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:D13" si="1">AVERAGE(B2:B10)</f>
+        <v>373243.55555555556</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>372319.11111111112</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>372373.33333333331</v>
+      </c>
+      <c r="F13">
+        <f>AVERAGE(F2:F10)</f>
+        <v>373075.22222222225</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:I13" si="2">AVERAGE(G2:G10)</f>
+        <v>403645.22222222225</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>372711.11111111112</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>374363</v>
+      </c>
+    </row>
+    <row r="23" spans="11:14" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <f>K2/(1024*1024)</f>
+        <v>0.3554224967956543</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ref="L23:N23" si="3">L2/(1024*1024)</f>
+        <v>0.37044943703545463</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>0.35525809393988717</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="3"/>
+        <v>0.35607163111368811</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC8826E-0A6C-417E-BEED-1D0259E95521}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1983,7 +9300,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -1993,9 +9310,310 @@
       </c>
       <c r="I1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>15.68</v>
+      </c>
+      <c r="B2">
+        <v>271.83</v>
+      </c>
+      <c r="C2">
+        <v>31.36</v>
+      </c>
+      <c r="D2">
+        <v>54.31</v>
+      </c>
+      <c r="F2">
+        <v>101.36</v>
+      </c>
+      <c r="G2">
+        <v>20150.93</v>
+      </c>
+      <c r="H2">
+        <v>204.2</v>
+      </c>
+      <c r="I2">
+        <v>2374.5700000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>15.9</v>
+      </c>
+      <c r="B3">
+        <v>11583.88</v>
+      </c>
+      <c r="C3">
+        <v>21.67</v>
+      </c>
+      <c r="D3">
+        <v>21.67</v>
+      </c>
+      <c r="F3">
+        <v>106.05</v>
+      </c>
+      <c r="G3">
+        <v>34911.67</v>
+      </c>
+      <c r="H3">
+        <v>1448.07</v>
+      </c>
+      <c r="I3">
+        <v>6665.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>15.81</v>
+      </c>
+      <c r="B4">
+        <v>338.23</v>
+      </c>
+      <c r="C4">
+        <v>30.41</v>
+      </c>
+      <c r="D4">
+        <v>56.78</v>
+      </c>
+      <c r="F4">
+        <v>101.89</v>
+      </c>
+      <c r="G4">
+        <v>2746.76</v>
+      </c>
+      <c r="H4">
+        <v>182.12</v>
+      </c>
+      <c r="I4">
+        <v>633.63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>908.36</v>
+      </c>
+      <c r="B5">
+        <v>920.45</v>
+      </c>
+      <c r="C5">
+        <v>909.19</v>
+      </c>
+      <c r="D5">
+        <v>909.25</v>
+      </c>
+      <c r="F5">
+        <v>912.09</v>
+      </c>
+      <c r="G5">
+        <v>13179.36</v>
+      </c>
+      <c r="H5">
+        <v>938.8</v>
+      </c>
+      <c r="I5">
+        <v>1520.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>660.01</v>
+      </c>
+      <c r="B6">
+        <v>9778.15</v>
+      </c>
+      <c r="C6">
+        <v>660.15</v>
+      </c>
+      <c r="D6">
+        <v>660.15</v>
+      </c>
+      <c r="F6">
+        <v>669.57</v>
+      </c>
+      <c r="G6">
+        <v>20925.18</v>
+      </c>
+      <c r="H6">
+        <v>1305.56</v>
+      </c>
+      <c r="I6">
+        <v>5130.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1117.93</v>
+      </c>
+      <c r="B7">
+        <v>1132.1099999999999</v>
+      </c>
+      <c r="C7">
+        <v>1118.97</v>
+      </c>
+      <c r="D7">
+        <v>1119.1099999999999</v>
+      </c>
+      <c r="F7">
+        <v>1121.33</v>
+      </c>
+      <c r="G7">
+        <v>1885.57</v>
+      </c>
+      <c r="H7">
+        <v>1134.8399999999999</v>
+      </c>
+      <c r="I7">
+        <v>1176.8499999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>15.68</v>
+      </c>
+      <c r="B8">
+        <v>271.83</v>
+      </c>
+      <c r="C8">
+        <v>31.36</v>
+      </c>
+      <c r="D8">
+        <v>54.31</v>
+      </c>
+      <c r="F8">
+        <v>101.36</v>
+      </c>
+      <c r="G8">
+        <v>20150.93</v>
+      </c>
+      <c r="H8">
+        <v>204.2</v>
+      </c>
+      <c r="I8">
+        <v>2374.5700000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>15.9</v>
+      </c>
+      <c r="B9">
+        <v>11583.88</v>
+      </c>
+      <c r="C9">
+        <v>21.67</v>
+      </c>
+      <c r="D9">
+        <v>21.67</v>
+      </c>
+      <c r="F9">
+        <v>108.05</v>
+      </c>
+      <c r="G9">
+        <v>34911.67</v>
+      </c>
+      <c r="H9">
+        <v>1448.07</v>
+      </c>
+      <c r="I9">
+        <v>6665.59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>15.81</v>
+      </c>
+      <c r="B10">
+        <v>338.23</v>
+      </c>
+      <c r="C10">
+        <v>30.41</v>
+      </c>
+      <c r="D10">
+        <v>56.78</v>
+      </c>
+      <c r="F10">
+        <v>101.89</v>
+      </c>
+      <c r="G10">
+        <v>2746.76</v>
+      </c>
+      <c r="H10">
+        <v>182.12</v>
+      </c>
+      <c r="I10">
+        <v>633.63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>AVERAGE(A2:A10)</f>
+        <v>309.00888888888886</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:D13" si="0">AVERAGE(B2:B10)</f>
+        <v>4024.287777777778</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>317.24333333333334</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>328.2255555555555</v>
+      </c>
+      <c r="F13">
+        <f>AVERAGE(F2:F10)</f>
+        <v>369.28777777777782</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:I13" si="1">AVERAGE(G2:G10)</f>
+        <v>16845.425555555557</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>783.10888888888871</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>3019.4133333333334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>AVERAGE(A13,F13)</f>
+        <v>339.14833333333331</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18:D18" si="2">AVERAGE(B13,G13)</f>
+        <v>10434.856666666668</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>550.17611111111103</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>1673.8194444444443</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/grafik.xlsx
+++ b/grafik.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\SEMESTER 8\LAPORAN TA\COBA ASSEMBLE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\SEMESTER 8\LAPORAN TA\skripsimat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159DB90D-6EB4-434D-8978-2EE6EF3AC6F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01AE0EC-DFBC-4C09-AAEF-C4A3CF415ECD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20280" yWindow="-90" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{711ACC8C-989E-4DAB-A8E8-C66B080D32C1}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="8">
   <si>
     <t>LSB</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t xml:space="preserve">LSB </t>
+  </si>
+  <si>
+    <t>cek</t>
   </si>
 </sst>
 </file>
@@ -8919,15 +8922,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DED7F3-CC99-48E4-AD0F-0D18D015DE64}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -8965,7 +8968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10797</v>
       </c>
@@ -9010,7 +9013,7 @@
         <v>372687.5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>15984</v>
       </c>
@@ -9035,8 +9038,11 @@
       <c r="I3">
         <v>44914</v>
       </c>
+      <c r="T3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>83367</v>
       </c>
@@ -9062,7 +9068,7 @@
         <v>69543</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3641</v>
       </c>
@@ -9088,7 +9094,7 @@
         <v>3940</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3046</v>
       </c>
@@ -9114,7 +9120,7 @@
         <v>4802</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8259</v>
       </c>
@@ -9140,7 +9146,7 @@
         <v>8388</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -9166,7 +9172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3225604</v>
       </c>
@@ -9192,7 +9198,7 @@
         <v>3225604</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -9218,7 +9224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>AVERAGE(A2:A10)</f>
         <v>372299.77777777775</v>
